--- a/runtime final.xlsx
+++ b/runtime final.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="18195" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6525" windowHeight="4665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$S$52</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -430,11 +436,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -449,6 +455,13 @@
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -545,13 +558,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -560,7 +576,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -781,169 +797,169 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>1.1868131868131868</c:v>
+                  <c:v>1.0588235294117647</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4473684210526316</c:v>
+                  <c:v>1.2992125984251968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1785714285714286</c:v>
+                  <c:v>1.010204081632653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.76595744680851063</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7640449438202248</c:v>
+                  <c:v>1.6526315789473685</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8703703703703705</c:v>
+                  <c:v>1.7413793103448276</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5242718446601942</c:v>
+                  <c:v>1.3652173913043477</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9777777777777779</c:v>
+                  <c:v>1.8541666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6626865671641791</c:v>
+                  <c:v>2.5706051873198845</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4615384615384615</c:v>
+                  <c:v>1.2337662337662338</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5891472868217054</c:v>
+                  <c:v>1.4539007092198581</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4175824175824177</c:v>
+                  <c:v>1.2169811320754718</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3367346938775511</c:v>
+                  <c:v>1.1909090909090909</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4782608695652173</c:v>
+                  <c:v>1.3492063492063493</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2207792207792207</c:v>
+                  <c:v>1.0681818181818181</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.15625</c:v>
+                  <c:v>0.98666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0934959349593494</c:v>
+                  <c:v>2.0038910505836576</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7052631578947368</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2210526315789472</c:v>
+                  <c:v>2.0891089108910892</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.5864661654135337</c:v>
+                  <c:v>2.4748201438848922</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.6125</c:v>
+                  <c:v>1.3870967741935485</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.5974025974025974</c:v>
+                  <c:v>1.3666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.128654970760234</c:v>
+                  <c:v>1.9890710382513661</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4318181818181819</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.6304347826086956</c:v>
+                  <c:v>1.4423076923076923</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.7053571428571428</c:v>
+                  <c:v>1.5403225806451613</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.1118012422360248</c:v>
+                  <c:v>1.9653179190751444</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.9485294117647058</c:v>
+                  <c:v>1.7905405405405406</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.5058823529411764</c:v>
+                  <c:v>1.3195876288659794</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.5977011494252873</c:v>
+                  <c:v>1.404040404040404</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.5779220779220779</c:v>
+                  <c:v>1.463855421686747</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.0784313725490196</c:v>
+                  <c:v>0.88709677419354838</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1842105263157894</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.051948051948052</c:v>
+                  <c:v>0.92045454545454541</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.208955223880597</c:v>
+                  <c:v>1.0125</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97499999999999998</c:v>
+                  <c:v>0.82978723404255317</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.441860465116279</c:v>
+                  <c:v>1.3285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.24</c:v>
+                  <c:v>1.117117117117117</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2549019607843137</c:v>
+                  <c:v>1.1228070175438596</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.4264705882352942</c:v>
+                  <c:v>1.3197278911564625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.6900584795321638</c:v>
+                  <c:v>1.5879120879120878</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4583333333333333</c:v>
+                  <c:v>1.3257575757575757</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.1290322580645162</c:v>
+                  <c:v>0.94594594594594594</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.6578947368421053</c:v>
+                  <c:v>1.5671641791044777</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3186813186813187</c:v>
+                  <c:v>1.1650485436893203</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4928571428571429</c:v>
+                  <c:v>1.3841059602649006</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.6107382550335569</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.6578947368421053</c:v>
+                  <c:v>1.5671641791044777</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.3983050847457628</c:v>
+                  <c:v>1.2692307692307692</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.807511737089202</c:v>
+                  <c:v>1.71875</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.211111111111111</c:v>
+                  <c:v>1.058252427184466</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.3292682926829269</c:v>
+                  <c:v>1.1720430107526882</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.5529411764705883</c:v>
+                  <c:v>1.3608247422680413</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.2045454545454546</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.8771929824561404</c:v>
+                  <c:v>1.7685950413223142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,11 +974,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466945920"/>
-        <c:axId val="448782336"/>
+        <c:axId val="-669308944"/>
+        <c:axId val="-669320912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466945920"/>
+        <c:axId val="-669308944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,12 +988,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="448782336"/>
+        <c:crossAx val="-669320912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="448782336"/>
+        <c:axId val="-669320912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,7 +1004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466945920"/>
+        <c:crossAx val="-669308944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1013,7 +1029,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1411,11 +1427,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="44666240"/>
-        <c:axId val="44664704"/>
+        <c:axId val="-962752400"/>
+        <c:axId val="-962748048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44666240"/>
+        <c:axId val="-962752400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,12 +1441,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44664704"/>
+        <c:crossAx val="-962748048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44664704"/>
+        <c:axId val="-962748048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +1457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44666240"/>
+        <c:crossAx val="-962752400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1466,7 +1482,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1850,13 +1866,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="433772032"/>
-        <c:axId val="433773952"/>
+        <c:axId val="-962747504"/>
+        <c:axId val="-962746960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433772032"/>
+        <c:axId val="-962747504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,7 +1900,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433773952"/>
+        <c:crossAx val="-962746960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1894,7 +1909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433773952"/>
+        <c:axId val="-962746960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,7 +1939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433772032"/>
+        <c:crossAx val="-962747504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1946,20 +1961,3420 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>KBM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> delay vs audio duration</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$1:$A$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$B$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1002598080"/>
+        <c:axId val="-1002597536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1002598080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>audio duration</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1002597536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1002597536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>10s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Avg</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> of KBM delay </a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1002598080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Number of seconds from online </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>vs audio duration</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$1:$A$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$1:$C$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-962588688"/>
+        <c:axId val="-962587600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-962588688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>audio duration (seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-962587600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-962587600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> of seconds from online</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>(10s Avg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.36568678915135611"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-962588688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2046,8 +5461,73 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533181</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139245</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2089,7 +5569,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2124,7 +5604,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2336,22 +5816,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2389,7 +5869,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2421,15 +5901,15 @@
         <v>91</v>
       </c>
       <c r="K2" s="4">
-        <f>I2/J2</f>
-        <v>1.1868131868131868</v>
+        <f>I2/INT(D2)</f>
+        <v>1.0588235294117647</v>
       </c>
       <c r="L2">
         <f>G2/J2</f>
         <v>1.098901098901099E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -2461,15 +5941,15 @@
         <v>114</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" ref="K3:K56" si="0">I3/J3</f>
-        <v>1.4473684210526316</v>
+        <f t="shared" ref="K3:K56" si="0">I3/INT(D3)</f>
+        <v>1.2992125984251968</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L56" si="1">G3/J3</f>
         <v>8.771929824561403E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2502,14 +5982,14 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>1.1785714285714286</v>
+        <v>1.010204081632653</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -2542,14 +6022,14 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.76595744680851063</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2582,14 +6062,14 @@
       </c>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
-        <v>1.7640449438202248</v>
+        <v>1.6526315789473685</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
         <v>0.1797752808988764</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -2622,14 +6102,14 @@
       </c>
       <c r="K7" s="4">
         <f t="shared" si="0"/>
-        <v>1.8703703703703705</v>
+        <v>1.7413793103448276</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
         <v>9.2592592592592587E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2662,14 +6142,14 @@
       </c>
       <c r="K8" s="4">
         <f t="shared" si="0"/>
-        <v>1.5242718446601942</v>
+        <v>1.3652173913043477</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
         <v>2.9126213592233011E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -2702,14 +6182,14 @@
       </c>
       <c r="K9" s="4">
         <f t="shared" si="0"/>
-        <v>1.9777777777777779</v>
+        <v>1.8541666666666667</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2742,14 +6222,14 @@
       </c>
       <c r="K10" s="4">
         <f t="shared" si="0"/>
-        <v>2.6626865671641791</v>
+        <v>2.5706051873198845</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
         <v>0.43582089552238806</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2782,14 +6262,14 @@
       </c>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>1.4615384615384615</v>
+        <v>1.2337662337662338</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2822,14 +6302,14 @@
       </c>
       <c r="K12" s="4">
         <f t="shared" si="0"/>
-        <v>1.5891472868217054</v>
+        <v>1.4539007092198581</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
         <v>6.9767441860465115E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -2862,14 +6342,14 @@
       </c>
       <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>1.4175824175824177</v>
+        <v>1.2169811320754718</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -2902,14 +6382,14 @@
       </c>
       <c r="K14" s="4">
         <f t="shared" si="0"/>
-        <v>1.3367346938775511</v>
+        <v>1.1909090909090909</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -2942,14 +6422,14 @@
       </c>
       <c r="K15" s="4">
         <f t="shared" si="0"/>
-        <v>1.4782608695652173</v>
+        <v>1.3492063492063493</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
         <v>1.7391304347826087E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -2982,14 +6462,14 @@
       </c>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>1.2207792207792207</v>
+        <v>1.0681818181818181</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -3022,14 +6502,14 @@
       </c>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
-        <v>1.15625</v>
+        <v>0.98666666666666669</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -3062,14 +6542,14 @@
       </c>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>2.0934959349593494</v>
+        <v>2.0038910505836576</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
         <v>0.17479674796747968</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -3102,14 +6582,14 @@
       </c>
       <c r="K19" s="4">
         <f t="shared" si="0"/>
-        <v>1.7052631578947368</v>
+        <v>1.5</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
         <v>4.2105263157894736E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -3142,14 +6622,14 @@
       </c>
       <c r="K20" s="4">
         <f t="shared" si="0"/>
-        <v>2.2210526315789472</v>
+        <v>2.0891089108910892</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
@@ -3182,14 +6662,14 @@
       </c>
       <c r="K21" s="4">
         <f t="shared" si="0"/>
-        <v>2.5864661654135337</v>
+        <v>2.4748201438848922</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -3222,14 +6702,14 @@
       </c>
       <c r="K22" s="4">
         <f t="shared" si="0"/>
-        <v>1.6125</v>
+        <v>1.3870967741935485</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
@@ -3262,14 +6742,14 @@
       </c>
       <c r="K23" s="4">
         <f t="shared" si="0"/>
-        <v>1.5974025974025974</v>
+        <v>1.3666666666666667</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
         <v>5.1948051948051951E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -3302,14 +6782,14 @@
       </c>
       <c r="K24" s="4">
         <f t="shared" si="0"/>
-        <v>2.128654970760234</v>
+        <v>1.9890710382513661</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
         <v>0.2807017543859649</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -3342,14 +6822,14 @@
       </c>
       <c r="K25" s="4">
         <f t="shared" si="0"/>
-        <v>1.4318181818181819</v>
+        <v>1.125</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -3382,14 +6862,14 @@
       </c>
       <c r="K26" s="4">
         <f t="shared" si="0"/>
-        <v>1.6304347826086956</v>
+        <v>1.4423076923076923</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
         <v>8.6956521739130432E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -3422,14 +6902,14 @@
       </c>
       <c r="K27" s="4">
         <f t="shared" si="0"/>
-        <v>1.7053571428571428</v>
+        <v>1.5403225806451613</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
         <v>0.10714285714285714</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -3462,14 +6942,14 @@
       </c>
       <c r="K28" s="4">
         <f t="shared" si="0"/>
-        <v>2.1118012422360248</v>
+        <v>1.9653179190751444</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
         <v>0.26708074534161491</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -3502,14 +6982,14 @@
       </c>
       <c r="K29" s="4">
         <f t="shared" si="0"/>
-        <v>1.9485294117647058</v>
+        <v>1.7905405405405406</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
         <v>0.22058823529411764</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -3542,14 +7022,14 @@
       </c>
       <c r="K30" s="4">
         <f t="shared" si="0"/>
-        <v>1.5058823529411764</v>
+        <v>1.3195876288659794</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
         <v>7.0588235294117646E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3582,14 +7062,14 @@
       </c>
       <c r="K31" s="4">
         <f t="shared" si="0"/>
-        <v>1.5977011494252873</v>
+        <v>1.404040404040404</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
         <v>6.8965517241379309E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -3622,14 +7102,14 @@
       </c>
       <c r="K32" s="4">
         <f t="shared" si="0"/>
-        <v>1.5779220779220779</v>
+        <v>1.463855421686747</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
         <v>1.948051948051948E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -3662,14 +7142,14 @@
       </c>
       <c r="K33" s="4">
         <f t="shared" si="0"/>
-        <v>1.0784313725490196</v>
+        <v>0.88709677419354838</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
@@ -3702,14 +7182,14 @@
       </c>
       <c r="K34" s="4">
         <f t="shared" si="0"/>
-        <v>1.1842105263157894</v>
+        <v>0.9</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -3742,14 +7222,14 @@
       </c>
       <c r="K35" s="4">
         <f t="shared" si="0"/>
-        <v>1.051948051948052</v>
+        <v>0.92045454545454541</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
@@ -3782,14 +7262,14 @@
       </c>
       <c r="K36" s="4">
         <f t="shared" si="0"/>
-        <v>1.208955223880597</v>
+        <v>1.0125</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -3822,14 +7302,14 @@
       </c>
       <c r="K37" s="4">
         <f t="shared" si="0"/>
-        <v>0.97499999999999998</v>
+        <v>0.82978723404255317</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -3862,14 +7342,14 @@
       </c>
       <c r="K38" s="4">
         <f t="shared" si="0"/>
-        <v>1.441860465116279</v>
+        <v>1.3285714285714285</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
         <v>7.7519379844961239E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -3902,14 +7382,14 @@
       </c>
       <c r="K39" s="4">
         <f t="shared" si="0"/>
-        <v>1.24</v>
+        <v>1.117117117117117</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -3942,14 +7422,14 @@
       </c>
       <c r="K40" s="4">
         <f t="shared" si="0"/>
-        <v>1.2549019607843137</v>
+        <v>1.1228070175438596</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>49</v>
       </c>
@@ -3982,14 +7462,14 @@
       </c>
       <c r="K41" s="4">
         <f t="shared" si="0"/>
-        <v>1.4264705882352942</v>
+        <v>1.3197278911564625</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
         <v>1.4705882352941176E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -4022,14 +7502,14 @@
       </c>
       <c r="K42" s="4">
         <f t="shared" si="0"/>
-        <v>1.6900584795321638</v>
+        <v>1.5879120879120878</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
         <v>7.0175438596491224E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
@@ -4062,14 +7542,14 @@
       </c>
       <c r="K43" s="4">
         <f t="shared" si="0"/>
-        <v>1.4583333333333333</v>
+        <v>1.3257575757575757</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -4102,14 +7582,14 @@
       </c>
       <c r="K44" s="4">
         <f t="shared" si="0"/>
-        <v>1.1290322580645162</v>
+        <v>0.94594594594594594</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -4142,14 +7622,14 @@
       </c>
       <c r="K45" s="4">
         <f t="shared" si="0"/>
-        <v>1.6578947368421053</v>
+        <v>1.5671641791044777</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
         <v>7.3684210526315783E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
@@ -4182,14 +7662,14 @@
       </c>
       <c r="K46" s="4">
         <f t="shared" si="0"/>
-        <v>1.3186813186813187</v>
+        <v>1.1650485436893203</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
@@ -4222,14 +7702,14 @@
       </c>
       <c r="K47" s="4">
         <f t="shared" si="0"/>
-        <v>1.4928571428571429</v>
+        <v>1.3841059602649006</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
         <v>2.1428571428571429E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -4262,14 +7742,14 @@
       </c>
       <c r="K48" s="4">
         <f t="shared" si="0"/>
-        <v>1.6107382550335569</v>
+        <v>1.5</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
         <v>3.3557046979865772E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
@@ -4302,14 +7782,14 @@
       </c>
       <c r="K49" s="4">
         <f t="shared" si="0"/>
-        <v>1.6578947368421053</v>
+        <v>1.5671641791044777</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
         <v>0.14210526315789473</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>58</v>
       </c>
@@ -4342,14 +7822,14 @@
       </c>
       <c r="K50" s="4">
         <f t="shared" si="0"/>
-        <v>1.3983050847457628</v>
+        <v>1.2692307692307692</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
         <v>8.4745762711864406E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>59</v>
       </c>
@@ -4382,14 +7862,14 @@
       </c>
       <c r="K51" s="4">
         <f t="shared" si="0"/>
-        <v>1.807511737089202</v>
+        <v>1.71875</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
         <v>9.3896713615023469E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>60</v>
       </c>
@@ -4422,14 +7902,14 @@
       </c>
       <c r="K52" s="4">
         <f t="shared" si="0"/>
-        <v>1.211111111111111</v>
+        <v>1.058252427184466</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>61</v>
       </c>
@@ -4462,14 +7942,14 @@
       </c>
       <c r="K53" s="4">
         <f t="shared" si="0"/>
-        <v>1.3292682926829269</v>
+        <v>1.1720430107526882</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
         <v>2.4390243902439025E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>62</v>
       </c>
@@ -4502,14 +7982,14 @@
       </c>
       <c r="K54" s="4">
         <f t="shared" si="0"/>
-        <v>1.5529411764705883</v>
+        <v>1.3608247422680413</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
         <v>1.1764705882352941E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>63</v>
       </c>
@@ -4542,14 +8022,14 @@
       </c>
       <c r="K55" s="4">
         <f t="shared" si="0"/>
-        <v>1.2045454545454546</v>
+        <v>1.06</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>64</v>
       </c>
@@ -4582,7 +8062,7 @@
       </c>
       <c r="K56" s="4">
         <f t="shared" si="0"/>
-        <v>1.8771929824561404</v>
+        <v>1.7685950413223142</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
@@ -4590,6 +8070,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4600,13 +8081,13 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4665,7 +8146,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
@@ -4725,7 +8206,7 @@
         <v>2.547E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
@@ -4785,7 +8266,7 @@
         <v>2.479E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>90</v>
       </c>
@@ -4845,7 +8326,7 @@
         <v>2.325E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>101</v>
       </c>
@@ -4905,7 +8386,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>112</v>
       </c>
@@ -4965,7 +8446,7 @@
         <v>2.2349999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
@@ -5025,7 +8506,7 @@
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>115</v>
       </c>
@@ -5085,7 +8566,7 @@
         <v>1.9990000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
@@ -5145,7 +8626,7 @@
         <v>2.2020000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>117</v>
       </c>
@@ -5205,7 +8686,7 @@
         <v>2.2069999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>69</v>
       </c>
@@ -5265,7 +8746,7 @@
         <v>2.2159999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -5325,7 +8806,7 @@
         <v>2.146E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
@@ -5385,7 +8866,7 @@
         <v>2.3550000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>72</v>
       </c>
@@ -5445,7 +8926,7 @@
         <v>2.3800000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
@@ -5505,7 +8986,7 @@
         <v>2.2759999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -5565,7 +9046,7 @@
         <v>2.265E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
@@ -5625,7 +9106,7 @@
         <v>2.3550000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>76</v>
       </c>
@@ -5685,7 +9166,7 @@
         <v>2.316E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
@@ -5745,7 +9226,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
@@ -5805,7 +9286,7 @@
         <v>2.087E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -5865,7 +9346,7 @@
         <v>2.1010000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>81</v>
       </c>
@@ -5925,7 +9406,7 @@
         <v>2.2290000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>82</v>
       </c>
@@ -5985,7 +9466,7 @@
         <v>2.2009999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>83</v>
       </c>
@@ -6045,7 +9526,7 @@
         <v>2.317E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>84</v>
       </c>
@@ -6105,7 +9586,7 @@
         <v>2.2769999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>85</v>
       </c>
@@ -6165,7 +9646,7 @@
         <v>2.3130000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>86</v>
       </c>
@@ -6225,7 +9706,7 @@
         <v>2.3980000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>87</v>
       </c>
@@ -6285,7 +9766,7 @@
         <v>2.2429999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
@@ -6345,7 +9826,7 @@
         <v>2.181E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>89</v>
       </c>
@@ -6405,7 +9886,7 @@
         <v>2.206E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>91</v>
       </c>
@@ -6465,7 +9946,7 @@
         <v>2.2610000000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -6525,7 +10006,7 @@
         <v>2.2249999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>93</v>
       </c>
@@ -6585,7 +10066,7 @@
         <v>2.351E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>94</v>
       </c>
@@ -6645,7 +10126,7 @@
         <v>2.308E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>95</v>
       </c>
@@ -6705,7 +10186,7 @@
         <v>2.3259999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>96</v>
       </c>
@@ -6765,7 +10246,7 @@
         <v>2.4729999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>97</v>
       </c>
@@ -6825,7 +10306,7 @@
         <v>2.299E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>98</v>
       </c>
@@ -6885,7 +10366,7 @@
         <v>2.4629999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>99</v>
       </c>
@@ -6945,7 +10426,7 @@
         <v>2.4029999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>100</v>
       </c>
@@ -7005,7 +10486,7 @@
         <v>2.3609999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>102</v>
       </c>
@@ -7065,7 +10546,7 @@
         <v>2.393E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>103</v>
       </c>
@@ -7125,7 +10606,7 @@
         <v>2.349E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>104</v>
       </c>
@@ -7185,7 +10666,7 @@
         <v>2.4680000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>105</v>
       </c>
@@ -7245,7 +10726,7 @@
         <v>2.3400000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>106</v>
       </c>
@@ -7305,7 +10786,7 @@
         <v>2.5270000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>107</v>
       </c>
@@ -7365,7 +10846,7 @@
         <v>2.4709999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>108</v>
       </c>
@@ -7425,7 +10906,7 @@
         <v>2.5010000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>109</v>
       </c>
@@ -7485,7 +10966,7 @@
         <v>2.5270000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>110</v>
       </c>
@@ -7545,7 +11026,7 @@
         <v>2.426E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>111</v>
       </c>
@@ -7605,7 +11086,7 @@
         <v>2.3480000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
@@ -7665,7 +11146,7 @@
         <v>2.512E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
@@ -7725,7 +11206,7 @@
         <v>2.4680000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
       <c r="L54">
         <f>MIN(L2:L51)</f>
         <v>1.3500000000000001E-3</v>
@@ -7759,7 +11240,7 @@
         <v>1.9990000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
       <c r="L55">
         <f>MAX(L2:L51)</f>
         <v>1.7700000000000001E-3</v>
@@ -7793,7 +11274,7 @@
         <v>2.547E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
       <c r="L56">
         <f>AVERAGE(L2:L51)</f>
         <v>1.5005999999999999E-3</v>
@@ -7833,20 +11314,1399 @@
       <sortCondition ref="J1:J52"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0.9</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>1.3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>1.7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>1.2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>1.3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>1.3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>1.4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>1.3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>1.4</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <v>1.6</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>140</v>
+      </c>
+      <c r="B14">
+        <v>1.8</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>150</v>
+      </c>
+      <c r="B15">
+        <v>1.9</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>160</v>
+      </c>
+      <c r="B16">
+        <v>1.7</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>170</v>
+      </c>
+      <c r="B17">
+        <v>1.8</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>180</v>
+      </c>
+      <c r="B18">
+        <v>1.7</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>190</v>
+      </c>
+      <c r="B19">
+        <v>1.7</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>200</v>
+      </c>
+      <c r="B20">
+        <v>2.1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>210</v>
+      </c>
+      <c r="B21">
+        <v>2.5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>220</v>
+      </c>
+      <c r="B22">
+        <v>2.5</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>230</v>
+      </c>
+      <c r="B23">
+        <v>2.5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>240</v>
+      </c>
+      <c r="B24">
+        <v>2.4</v>
+      </c>
+      <c r="C24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>250</v>
+      </c>
+      <c r="B25">
+        <v>2.1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>260</v>
+      </c>
+      <c r="B26">
+        <v>1.6</v>
+      </c>
+      <c r="C26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>270</v>
+      </c>
+      <c r="B27">
+        <v>2.5</v>
+      </c>
+      <c r="C27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>280</v>
+      </c>
+      <c r="B28">
+        <v>2.5</v>
+      </c>
+      <c r="C28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>290</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>300</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>310</v>
+      </c>
+      <c r="B31">
+        <v>2.9</v>
+      </c>
+      <c r="C31">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>320</v>
+      </c>
+      <c r="B32">
+        <v>3.1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>330</v>
+      </c>
+      <c r="B33">
+        <v>2.6</v>
+      </c>
+      <c r="C33">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>340</v>
+      </c>
+      <c r="B34">
+        <v>3.1</v>
+      </c>
+      <c r="C34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>350</v>
+      </c>
+      <c r="B35">
+        <v>2.9</v>
+      </c>
+      <c r="C35">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>360</v>
+      </c>
+      <c r="B36">
+        <v>3.3</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>370</v>
+      </c>
+      <c r="B37">
+        <v>3.7</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>380</v>
+      </c>
+      <c r="B38">
+        <v>3.5</v>
+      </c>
+      <c r="C38">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>390</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>400</v>
+      </c>
+      <c r="B40">
+        <v>3.9</v>
+      </c>
+      <c r="C40">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>410</v>
+      </c>
+      <c r="B41">
+        <v>3.1</v>
+      </c>
+      <c r="C41">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>420</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>430</v>
+      </c>
+      <c r="B43">
+        <v>4.2</v>
+      </c>
+      <c r="C43">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>440</v>
+      </c>
+      <c r="B44">
+        <v>3.7</v>
+      </c>
+      <c r="C44">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>450</v>
+      </c>
+      <c r="B45">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C45">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>460</v>
+      </c>
+      <c r="B46">
+        <v>3.4</v>
+      </c>
+      <c r="C46">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>470</v>
+      </c>
+      <c r="B47">
+        <v>3.7</v>
+      </c>
+      <c r="C47">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>480</v>
+      </c>
+      <c r="B48">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C48">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>490</v>
+      </c>
+      <c r="B49">
+        <v>3.1</v>
+      </c>
+      <c r="C49">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>500</v>
+      </c>
+      <c r="B50">
+        <v>4.3</v>
+      </c>
+      <c r="C50">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>510</v>
+      </c>
+      <c r="B51">
+        <v>4.7</v>
+      </c>
+      <c r="C51">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>520</v>
+      </c>
+      <c r="B52">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C52">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>530</v>
+      </c>
+      <c r="B53">
+        <v>3.7</v>
+      </c>
+      <c r="C53">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>540</v>
+      </c>
+      <c r="B54">
+        <v>3.8</v>
+      </c>
+      <c r="C54">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>550</v>
+      </c>
+      <c r="B55">
+        <v>3.9</v>
+      </c>
+      <c r="C55">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>560</v>
+      </c>
+      <c r="B56">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C56">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>570</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>580</v>
+      </c>
+      <c r="B58">
+        <v>4.5</v>
+      </c>
+      <c r="C58">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>590</v>
+      </c>
+      <c r="B59">
+        <v>4.5</v>
+      </c>
+      <c r="C59">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>600</v>
+      </c>
+      <c r="B60">
+        <v>4.5</v>
+      </c>
+      <c r="C60">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>610</v>
+      </c>
+      <c r="B61">
+        <v>4.5</v>
+      </c>
+      <c r="C61">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>620</v>
+      </c>
+      <c r="B62">
+        <v>5.5</v>
+      </c>
+      <c r="C62">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>630</v>
+      </c>
+      <c r="B63">
+        <v>5.5</v>
+      </c>
+      <c r="C63">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>640</v>
+      </c>
+      <c r="B64">
+        <v>5.5</v>
+      </c>
+      <c r="C64">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>650</v>
+      </c>
+      <c r="B65">
+        <v>5.5</v>
+      </c>
+      <c r="C65">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>660</v>
+      </c>
+      <c r="B66">
+        <v>5.5</v>
+      </c>
+      <c r="C66">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>670</v>
+      </c>
+      <c r="B67">
+        <v>6.1</v>
+      </c>
+      <c r="C67">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>680</v>
+      </c>
+      <c r="B68">
+        <v>6.2</v>
+      </c>
+      <c r="C68">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>690</v>
+      </c>
+      <c r="B69">
+        <v>5.5</v>
+      </c>
+      <c r="C69">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>700</v>
+      </c>
+      <c r="B70">
+        <v>6.1</v>
+      </c>
+      <c r="C70">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>710</v>
+      </c>
+      <c r="B71">
+        <v>6.5</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>720</v>
+      </c>
+      <c r="B72">
+        <v>5.5</v>
+      </c>
+      <c r="C72">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>730</v>
+      </c>
+      <c r="B73">
+        <v>5.9</v>
+      </c>
+      <c r="C73">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>740</v>
+      </c>
+      <c r="B74">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C74">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>750</v>
+      </c>
+      <c r="B75">
+        <v>6.7</v>
+      </c>
+      <c r="C75">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>760</v>
+      </c>
+      <c r="B76">
+        <v>7.1</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>770</v>
+      </c>
+      <c r="B77">
+        <v>7.5</v>
+      </c>
+      <c r="C77">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>780</v>
+      </c>
+      <c r="B78">
+        <v>5.5</v>
+      </c>
+      <c r="C78">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>790</v>
+      </c>
+      <c r="B79">
+        <v>5.9</v>
+      </c>
+      <c r="C79">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>800</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>810</v>
+      </c>
+      <c r="B81">
+        <v>7.9</v>
+      </c>
+      <c r="C81">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>820</v>
+      </c>
+      <c r="B82">
+        <v>7.5</v>
+      </c>
+      <c r="C82">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>830</v>
+      </c>
+      <c r="B83">
+        <v>5.8</v>
+      </c>
+      <c r="C83">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>840</v>
+      </c>
+      <c r="B84">
+        <v>6.7</v>
+      </c>
+      <c r="C84">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>850</v>
+      </c>
+      <c r="B85">
+        <v>7.6</v>
+      </c>
+      <c r="C85">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>860</v>
+      </c>
+      <c r="B86">
+        <v>8.5</v>
+      </c>
+      <c r="C86">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>870</v>
+      </c>
+      <c r="B87">
+        <v>4.5</v>
+      </c>
+      <c r="C87">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>880</v>
+      </c>
+      <c r="B88">
+        <v>7.5</v>
+      </c>
+      <c r="C88">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>890</v>
+      </c>
+      <c r="B89">
+        <v>9.1</v>
+      </c>
+      <c r="C89">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>900</v>
+      </c>
+      <c r="B90">
+        <v>6.5</v>
+      </c>
+      <c r="C90">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>910</v>
+      </c>
+      <c r="B91">
+        <v>6.7</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>920</v>
+      </c>
+      <c r="B92">
+        <v>9.5</v>
+      </c>
+      <c r="C92">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>930</v>
+      </c>
+      <c r="B93">
+        <v>7.5</v>
+      </c>
+      <c r="C93">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>940</v>
+      </c>
+      <c r="B94">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>950</v>
+      </c>
+      <c r="B95">
+        <v>9.5</v>
+      </c>
+      <c r="C95">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>960</v>
+      </c>
+      <c r="B96">
+        <v>7.5</v>
+      </c>
+      <c r="C96">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>970</v>
+      </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>980</v>
+      </c>
+      <c r="B98">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C98">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>990</v>
+      </c>
+      <c r="B99">
+        <v>6.5</v>
+      </c>
+      <c r="C99">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>1000</v>
+      </c>
+      <c r="B100">
+        <v>8.5</v>
+      </c>
+      <c r="C100">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>1010</v>
+      </c>
+      <c r="B101">
+        <v>10.5</v>
+      </c>
+      <c r="C101">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>1020</v>
+      </c>
+      <c r="B102">
+        <v>6.1</v>
+      </c>
+      <c r="C102">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>1030</v>
+      </c>
+      <c r="B103">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C103">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>1040</v>
+      </c>
+      <c r="B104">
+        <v>8.5</v>
+      </c>
+      <c r="C104">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>1050</v>
+      </c>
+      <c r="B105">
+        <v>7.3</v>
+      </c>
+      <c r="C105">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>1060</v>
+      </c>
+      <c r="B106">
+        <v>10.9</v>
+      </c>
+      <c r="C106">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>1070</v>
+      </c>
+      <c r="B107">
+        <v>6.5</v>
+      </c>
+      <c r="C107">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>1080</v>
+      </c>
+      <c r="B108">
+        <v>8.5</v>
+      </c>
+      <c r="C108">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>1090</v>
+      </c>
+      <c r="B109">
+        <v>10.5</v>
+      </c>
+      <c r="C109">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>1100</v>
+      </c>
+      <c r="B110">
+        <v>6.1</v>
+      </c>
+      <c r="C110">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>1110</v>
+      </c>
+      <c r="B111">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C111">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>1120</v>
+      </c>
+      <c r="B112">
+        <v>8.5</v>
+      </c>
+      <c r="C112">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>1130</v>
+      </c>
+      <c r="B113">
+        <v>7.3</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>1140</v>
+      </c>
+      <c r="B114">
+        <v>10.9</v>
+      </c>
+      <c r="C114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>1150</v>
+      </c>
+      <c r="B115">
+        <v>6.5</v>
+      </c>
+      <c r="C115">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>1160</v>
+      </c>
+      <c r="B116">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>1170</v>
+      </c>
+      <c r="B117">
+        <v>9.5</v>
+      </c>
+      <c r="C117">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>1180</v>
+      </c>
+      <c r="B118">
+        <v>6.7</v>
+      </c>
+      <c r="C118">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>1190</v>
+      </c>
+      <c r="B119">
+        <v>11.8</v>
+      </c>
+      <c r="C119">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>1200</v>
+      </c>
+      <c r="B120">
+        <v>6.5</v>
+      </c>
+      <c r="C120">
+        <v>9.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1.95</v>
+      </c>
+      <c r="B1">
+        <v>98.2</v>
+      </c>
+      <c r="C1">
+        <f>B1+A1</f>
+        <v>100.15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0.65</v>
+      </c>
+      <c r="B2">
+        <v>99.45</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C3" si="0">B2+A2</f>
+        <v>100.10000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="4">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>100.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/runtime final.xlsx
+++ b/runtime final.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6525" windowHeight="4665"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="18195" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$S$52</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -436,11 +430,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -455,13 +449,6 @@
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -558,16 +545,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -576,7 +560,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -797,169 +781,169 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>1.0588235294117647</c:v>
+                  <c:v>1.1868131868131868</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2992125984251968</c:v>
+                  <c:v>1.4473684210526316</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.010204081632653</c:v>
+                  <c:v>1.1785714285714286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76595744680851063</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6526315789473685</c:v>
+                  <c:v>1.7640449438202248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7413793103448276</c:v>
+                  <c:v>1.8703703703703705</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3652173913043477</c:v>
+                  <c:v>1.5242718446601942</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8541666666666667</c:v>
+                  <c:v>1.9777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5706051873198845</c:v>
+                  <c:v>2.6626865671641791</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2337662337662338</c:v>
+                  <c:v>1.4615384615384615</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4539007092198581</c:v>
+                  <c:v>1.5891472868217054</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2169811320754718</c:v>
+                  <c:v>1.4175824175824177</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1909090909090909</c:v>
+                  <c:v>1.3367346938775511</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3492063492063493</c:v>
+                  <c:v>1.4782608695652173</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0681818181818181</c:v>
+                  <c:v>1.2207792207792207</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.98666666666666669</c:v>
+                  <c:v>1.15625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0038910505836576</c:v>
+                  <c:v>2.0934959349593494</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5</c:v>
+                  <c:v>1.7052631578947368</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0891089108910892</c:v>
+                  <c:v>2.2210526315789472</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.4748201438848922</c:v>
+                  <c:v>2.5864661654135337</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3870967741935485</c:v>
+                  <c:v>1.6125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3666666666666667</c:v>
+                  <c:v>1.5974025974025974</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.9890710382513661</c:v>
+                  <c:v>2.128654970760234</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.125</c:v>
+                  <c:v>1.4318181818181819</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4423076923076923</c:v>
+                  <c:v>1.6304347826086956</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.5403225806451613</c:v>
+                  <c:v>1.7053571428571428</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.9653179190751444</c:v>
+                  <c:v>2.1118012422360248</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7905405405405406</c:v>
+                  <c:v>1.9485294117647058</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3195876288659794</c:v>
+                  <c:v>1.5058823529411764</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.404040404040404</c:v>
+                  <c:v>1.5977011494252873</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.463855421686747</c:v>
+                  <c:v>1.5779220779220779</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.88709677419354838</c:v>
+                  <c:v>1.0784313725490196</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.9</c:v>
+                  <c:v>1.1842105263157894</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.92045454545454541</c:v>
+                  <c:v>1.051948051948052</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0125</c:v>
+                  <c:v>1.208955223880597</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.82978723404255317</c:v>
+                  <c:v>0.97499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.3285714285714285</c:v>
+                  <c:v>1.441860465116279</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.117117117117117</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1228070175438596</c:v>
+                  <c:v>1.2549019607843137</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3197278911564625</c:v>
+                  <c:v>1.4264705882352942</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.5879120879120878</c:v>
+                  <c:v>1.6900584795321638</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.3257575757575757</c:v>
+                  <c:v>1.4583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.94594594594594594</c:v>
+                  <c:v>1.1290322580645162</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.5671641791044777</c:v>
+                  <c:v>1.6578947368421053</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.1650485436893203</c:v>
+                  <c:v>1.3186813186813187</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3841059602649006</c:v>
+                  <c:v>1.4928571428571429</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.5</c:v>
+                  <c:v>1.6107382550335569</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.5671641791044777</c:v>
+                  <c:v>1.6578947368421053</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.2692307692307692</c:v>
+                  <c:v>1.3983050847457628</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.71875</c:v>
+                  <c:v>1.807511737089202</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.058252427184466</c:v>
+                  <c:v>1.211111111111111</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.1720430107526882</c:v>
+                  <c:v>1.3292682926829269</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.3608247422680413</c:v>
+                  <c:v>1.5529411764705883</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.06</c:v>
+                  <c:v>1.2045454545454546</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.7685950413223142</c:v>
+                  <c:v>1.8771929824561404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,11 +958,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-669308944"/>
-        <c:axId val="-669320912"/>
+        <c:axId val="466945920"/>
+        <c:axId val="448782336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-669308944"/>
+        <c:axId val="466945920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,12 +972,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-669320912"/>
+        <c:crossAx val="448782336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-669320912"/>
+        <c:axId val="448782336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,7 +988,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-669308944"/>
+        <c:crossAx val="466945920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1029,7 +1013,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1427,11 +1411,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-962752400"/>
-        <c:axId val="-962748048"/>
+        <c:axId val="44666240"/>
+        <c:axId val="44664704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-962752400"/>
+        <c:axId val="44666240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,12 +1425,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-962748048"/>
+        <c:crossAx val="44664704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-962748048"/>
+        <c:axId val="44664704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-962752400"/>
+        <c:crossAx val="44666240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1482,7 +1466,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1866,12 +1850,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-962747504"/>
-        <c:axId val="-962746960"/>
+        <c:axId val="433772032"/>
+        <c:axId val="433773952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-962747504"/>
+        <c:axId val="433772032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,7 +1885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-962746960"/>
+        <c:crossAx val="433773952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1909,7 +1894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-962746960"/>
+        <c:axId val="433773952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,7 +1924,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-962747504"/>
+        <c:crossAx val="433772032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1961,3420 +1946,20 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>KBM</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> delay vs audio duration</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$A$1:$A$120</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>610</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>620</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>660</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>670</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>680</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>690</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>710</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>740</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>760</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>780</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>790</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>810</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>820</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>910</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>920</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>930</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>940</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>980</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1010</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1020</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1030</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1060</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1070</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1080</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1090</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1130</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1150</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1170</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1180</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1190</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$B$1:$B$120</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>9.1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>6.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-1002598080"/>
-        <c:axId val="-1002597536"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-1002598080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>audio duration</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1002597536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-1002597536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>10s</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Avg</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t> of KBM delay </a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1002598080"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Number of seconds from online </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>vs audio duration</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$A$1:$A$120</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>610</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>620</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>660</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>670</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>680</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>690</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>710</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>740</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>760</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>780</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>790</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>810</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>820</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>910</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>920</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>930</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>940</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>980</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>990</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1010</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1020</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1030</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1060</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1070</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1080</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1090</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1130</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1150</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1160</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1170</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1180</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1190</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$C$1:$C$120</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>9.9</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>8.1</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>8.1</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>9.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-962588688"/>
-        <c:axId val="-962587600"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-962588688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>audio duration (seconds)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-962587600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-962587600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t> of seconds from online</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t>(10s Avg)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.2222222222222223E-2"/>
-              <c:y val="0.36568678915135611"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-962588688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5461,73 +2046,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533181</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>139245</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>642937</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5569,7 +2089,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5604,7 +2124,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5816,22 +2336,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5869,7 +2389,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -5901,15 +2421,15 @@
         <v>91</v>
       </c>
       <c r="K2" s="4">
-        <f>I2/INT(D2)</f>
-        <v>1.0588235294117647</v>
+        <f>I2/J2</f>
+        <v>1.1868131868131868</v>
       </c>
       <c r="L2">
         <f>G2/J2</f>
         <v>1.098901098901099E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -5941,15 +2461,15 @@
         <v>114</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" ref="K3:K56" si="0">I3/INT(D3)</f>
-        <v>1.2992125984251968</v>
+        <f t="shared" ref="K3:K56" si="0">I3/J3</f>
+        <v>1.4473684210526316</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L56" si="1">G3/J3</f>
         <v>8.771929824561403E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -5982,14 +2502,14 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>1.010204081632653</v>
+        <v>1.1785714285714286</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -6022,14 +2542,14 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>0.76595744680851063</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -6062,14 +2582,14 @@
       </c>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
-        <v>1.6526315789473685</v>
+        <v>1.7640449438202248</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
         <v>0.1797752808988764</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -6102,14 +2622,14 @@
       </c>
       <c r="K7" s="4">
         <f t="shared" si="0"/>
-        <v>1.7413793103448276</v>
+        <v>1.8703703703703705</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
         <v>9.2592592592592587E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -6142,14 +2662,14 @@
       </c>
       <c r="K8" s="4">
         <f t="shared" si="0"/>
-        <v>1.3652173913043477</v>
+        <v>1.5242718446601942</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
         <v>2.9126213592233011E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -6182,14 +2702,14 @@
       </c>
       <c r="K9" s="4">
         <f t="shared" si="0"/>
-        <v>1.8541666666666667</v>
+        <v>1.9777777777777779</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -6222,14 +2742,14 @@
       </c>
       <c r="K10" s="4">
         <f t="shared" si="0"/>
-        <v>2.5706051873198845</v>
+        <v>2.6626865671641791</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
         <v>0.43582089552238806</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -6262,14 +2782,14 @@
       </c>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>1.2337662337662338</v>
+        <v>1.4615384615384615</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -6302,14 +2822,14 @@
       </c>
       <c r="K12" s="4">
         <f t="shared" si="0"/>
-        <v>1.4539007092198581</v>
+        <v>1.5891472868217054</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
         <v>6.9767441860465115E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -6342,14 +2862,14 @@
       </c>
       <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>1.2169811320754718</v>
+        <v>1.4175824175824177</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -6382,14 +2902,14 @@
       </c>
       <c r="K14" s="4">
         <f t="shared" si="0"/>
-        <v>1.1909090909090909</v>
+        <v>1.3367346938775511</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -6422,14 +2942,14 @@
       </c>
       <c r="K15" s="4">
         <f t="shared" si="0"/>
-        <v>1.3492063492063493</v>
+        <v>1.4782608695652173</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
         <v>1.7391304347826087E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -6462,14 +2982,14 @@
       </c>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>1.0681818181818181</v>
+        <v>1.2207792207792207</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -6502,14 +3022,14 @@
       </c>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
-        <v>0.98666666666666669</v>
+        <v>1.15625</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -6542,14 +3062,14 @@
       </c>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>2.0038910505836576</v>
+        <v>2.0934959349593494</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
         <v>0.17479674796747968</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -6582,14 +3102,14 @@
       </c>
       <c r="K19" s="4">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.7052631578947368</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
         <v>4.2105263157894736E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -6622,14 +3142,14 @@
       </c>
       <c r="K20" s="4">
         <f t="shared" si="0"/>
-        <v>2.0891089108910892</v>
+        <v>2.2210526315789472</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
@@ -6662,14 +3182,14 @@
       </c>
       <c r="K21" s="4">
         <f t="shared" si="0"/>
-        <v>2.4748201438848922</v>
+        <v>2.5864661654135337</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -6702,14 +3222,14 @@
       </c>
       <c r="K22" s="4">
         <f t="shared" si="0"/>
-        <v>1.3870967741935485</v>
+        <v>1.6125</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
@@ -6742,14 +3262,14 @@
       </c>
       <c r="K23" s="4">
         <f t="shared" si="0"/>
-        <v>1.3666666666666667</v>
+        <v>1.5974025974025974</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
         <v>5.1948051948051951E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -6782,14 +3302,14 @@
       </c>
       <c r="K24" s="4">
         <f t="shared" si="0"/>
-        <v>1.9890710382513661</v>
+        <v>2.128654970760234</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
         <v>0.2807017543859649</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -6822,14 +3342,14 @@
       </c>
       <c r="K25" s="4">
         <f t="shared" si="0"/>
-        <v>1.125</v>
+        <v>1.4318181818181819</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -6862,14 +3382,14 @@
       </c>
       <c r="K26" s="4">
         <f t="shared" si="0"/>
-        <v>1.4423076923076923</v>
+        <v>1.6304347826086956</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
         <v>8.6956521739130432E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -6902,14 +3422,14 @@
       </c>
       <c r="K27" s="4">
         <f t="shared" si="0"/>
-        <v>1.5403225806451613</v>
+        <v>1.7053571428571428</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
         <v>0.10714285714285714</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -6942,14 +3462,14 @@
       </c>
       <c r="K28" s="4">
         <f t="shared" si="0"/>
-        <v>1.9653179190751444</v>
+        <v>2.1118012422360248</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
         <v>0.26708074534161491</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -6982,14 +3502,14 @@
       </c>
       <c r="K29" s="4">
         <f t="shared" si="0"/>
-        <v>1.7905405405405406</v>
+        <v>1.9485294117647058</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
         <v>0.22058823529411764</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -7022,14 +3542,14 @@
       </c>
       <c r="K30" s="4">
         <f t="shared" si="0"/>
-        <v>1.3195876288659794</v>
+        <v>1.5058823529411764</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
         <v>7.0588235294117646E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -7062,14 +3582,14 @@
       </c>
       <c r="K31" s="4">
         <f t="shared" si="0"/>
-        <v>1.404040404040404</v>
+        <v>1.5977011494252873</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
         <v>6.8965517241379309E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -7102,14 +3622,14 @@
       </c>
       <c r="K32" s="4">
         <f t="shared" si="0"/>
-        <v>1.463855421686747</v>
+        <v>1.5779220779220779</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
         <v>1.948051948051948E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -7142,14 +3662,14 @@
       </c>
       <c r="K33" s="4">
         <f t="shared" si="0"/>
-        <v>0.88709677419354838</v>
+        <v>1.0784313725490196</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
@@ -7182,14 +3702,14 @@
       </c>
       <c r="K34" s="4">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>1.1842105263157894</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -7222,14 +3742,14 @@
       </c>
       <c r="K35" s="4">
         <f t="shared" si="0"/>
-        <v>0.92045454545454541</v>
+        <v>1.051948051948052</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
@@ -7262,14 +3782,14 @@
       </c>
       <c r="K36" s="4">
         <f t="shared" si="0"/>
-        <v>1.0125</v>
+        <v>1.208955223880597</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -7302,14 +3822,14 @@
       </c>
       <c r="K37" s="4">
         <f t="shared" si="0"/>
-        <v>0.82978723404255317</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -7342,14 +3862,14 @@
       </c>
       <c r="K38" s="4">
         <f t="shared" si="0"/>
-        <v>1.3285714285714285</v>
+        <v>1.441860465116279</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
         <v>7.7519379844961239E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -7382,14 +3902,14 @@
       </c>
       <c r="K39" s="4">
         <f t="shared" si="0"/>
-        <v>1.117117117117117</v>
+        <v>1.24</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -7422,14 +3942,14 @@
       </c>
       <c r="K40" s="4">
         <f t="shared" si="0"/>
-        <v>1.1228070175438596</v>
+        <v>1.2549019607843137</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>49</v>
       </c>
@@ -7462,14 +3982,14 @@
       </c>
       <c r="K41" s="4">
         <f t="shared" si="0"/>
-        <v>1.3197278911564625</v>
+        <v>1.4264705882352942</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
         <v>1.4705882352941176E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -7502,14 +4022,14 @@
       </c>
       <c r="K42" s="4">
         <f t="shared" si="0"/>
-        <v>1.5879120879120878</v>
+        <v>1.6900584795321638</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
         <v>7.0175438596491224E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
@@ -7542,14 +4062,14 @@
       </c>
       <c r="K43" s="4">
         <f t="shared" si="0"/>
-        <v>1.3257575757575757</v>
+        <v>1.4583333333333333</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -7582,14 +4102,14 @@
       </c>
       <c r="K44" s="4">
         <f t="shared" si="0"/>
-        <v>0.94594594594594594</v>
+        <v>1.1290322580645162</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -7622,14 +4142,14 @@
       </c>
       <c r="K45" s="4">
         <f t="shared" si="0"/>
-        <v>1.5671641791044777</v>
+        <v>1.6578947368421053</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
         <v>7.3684210526315783E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
@@ -7662,14 +4182,14 @@
       </c>
       <c r="K46" s="4">
         <f t="shared" si="0"/>
-        <v>1.1650485436893203</v>
+        <v>1.3186813186813187</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
@@ -7702,14 +4222,14 @@
       </c>
       <c r="K47" s="4">
         <f t="shared" si="0"/>
-        <v>1.3841059602649006</v>
+        <v>1.4928571428571429</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
         <v>2.1428571428571429E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -7742,14 +4262,14 @@
       </c>
       <c r="K48" s="4">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.6107382550335569</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
         <v>3.3557046979865772E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
@@ -7782,14 +4302,14 @@
       </c>
       <c r="K49" s="4">
         <f t="shared" si="0"/>
-        <v>1.5671641791044777</v>
+        <v>1.6578947368421053</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
         <v>0.14210526315789473</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>58</v>
       </c>
@@ -7822,14 +4342,14 @@
       </c>
       <c r="K50" s="4">
         <f t="shared" si="0"/>
-        <v>1.2692307692307692</v>
+        <v>1.3983050847457628</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
         <v>8.4745762711864406E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>59</v>
       </c>
@@ -7862,14 +4382,14 @@
       </c>
       <c r="K51" s="4">
         <f t="shared" si="0"/>
-        <v>1.71875</v>
+        <v>1.807511737089202</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
         <v>9.3896713615023469E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>60</v>
       </c>
@@ -7902,14 +4422,14 @@
       </c>
       <c r="K52" s="4">
         <f t="shared" si="0"/>
-        <v>1.058252427184466</v>
+        <v>1.211111111111111</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>61</v>
       </c>
@@ -7942,14 +4462,14 @@
       </c>
       <c r="K53" s="4">
         <f t="shared" si="0"/>
-        <v>1.1720430107526882</v>
+        <v>1.3292682926829269</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
         <v>2.4390243902439025E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>62</v>
       </c>
@@ -7982,14 +4502,14 @@
       </c>
       <c r="K54" s="4">
         <f t="shared" si="0"/>
-        <v>1.3608247422680413</v>
+        <v>1.5529411764705883</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
         <v>1.1764705882352941E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>63</v>
       </c>
@@ -8022,14 +4542,14 @@
       </c>
       <c r="K55" s="4">
         <f t="shared" si="0"/>
-        <v>1.06</v>
+        <v>1.2045454545454546</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>64</v>
       </c>
@@ -8062,7 +4582,7 @@
       </c>
       <c r="K56" s="4">
         <f t="shared" si="0"/>
-        <v>1.7685950413223142</v>
+        <v>1.8771929824561404</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
@@ -8070,7 +4590,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8081,13 +4600,13 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8146,7 +4665,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>68</v>
       </c>
@@ -8206,7 +4725,7 @@
         <v>2.547E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
@@ -8266,7 +4785,7 @@
         <v>2.479E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>90</v>
       </c>
@@ -8326,7 +4845,7 @@
         <v>2.325E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>101</v>
       </c>
@@ -8386,7 +4905,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>112</v>
       </c>
@@ -8446,7 +4965,7 @@
         <v>2.2349999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
@@ -8506,7 +5025,7 @@
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>115</v>
       </c>
@@ -8566,7 +5085,7 @@
         <v>1.9990000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
@@ -8626,7 +5145,7 @@
         <v>2.2020000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>117</v>
       </c>
@@ -8686,7 +5205,7 @@
         <v>2.2069999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>69</v>
       </c>
@@ -8746,7 +5265,7 @@
         <v>2.2159999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -8806,7 +5325,7 @@
         <v>2.146E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
@@ -8866,7 +5385,7 @@
         <v>2.3550000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>72</v>
       </c>
@@ -8926,7 +5445,7 @@
         <v>2.3800000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
@@ -8986,7 +5505,7 @@
         <v>2.2759999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -9046,7 +5565,7 @@
         <v>2.265E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
@@ -9106,7 +5625,7 @@
         <v>2.3550000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>76</v>
       </c>
@@ -9166,7 +5685,7 @@
         <v>2.316E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
@@ -9226,7 +5745,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
@@ -9286,7 +5805,7 @@
         <v>2.087E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -9346,7 +5865,7 @@
         <v>2.1010000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>81</v>
       </c>
@@ -9406,7 +5925,7 @@
         <v>2.2290000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>82</v>
       </c>
@@ -9466,7 +5985,7 @@
         <v>2.2009999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>83</v>
       </c>
@@ -9526,7 +6045,7 @@
         <v>2.317E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>84</v>
       </c>
@@ -9586,7 +6105,7 @@
         <v>2.2769999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>85</v>
       </c>
@@ -9646,7 +6165,7 @@
         <v>2.3130000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>86</v>
       </c>
@@ -9706,7 +6225,7 @@
         <v>2.3980000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>87</v>
       </c>
@@ -9766,7 +6285,7 @@
         <v>2.2429999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
@@ -9826,7 +6345,7 @@
         <v>2.181E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>89</v>
       </c>
@@ -9886,7 +6405,7 @@
         <v>2.206E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>91</v>
       </c>
@@ -9946,7 +6465,7 @@
         <v>2.2610000000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -10006,7 +6525,7 @@
         <v>2.2249999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>93</v>
       </c>
@@ -10066,7 +6585,7 @@
         <v>2.351E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>94</v>
       </c>
@@ -10126,7 +6645,7 @@
         <v>2.308E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>95</v>
       </c>
@@ -10186,7 +6705,7 @@
         <v>2.3259999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>96</v>
       </c>
@@ -10246,7 +6765,7 @@
         <v>2.4729999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>97</v>
       </c>
@@ -10306,7 +6825,7 @@
         <v>2.299E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>98</v>
       </c>
@@ -10366,7 +6885,7 @@
         <v>2.4629999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>99</v>
       </c>
@@ -10426,7 +6945,7 @@
         <v>2.4029999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>100</v>
       </c>
@@ -10486,7 +7005,7 @@
         <v>2.3609999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>102</v>
       </c>
@@ -10546,7 +7065,7 @@
         <v>2.393E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>103</v>
       </c>
@@ -10606,7 +7125,7 @@
         <v>2.349E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>104</v>
       </c>
@@ -10666,7 +7185,7 @@
         <v>2.4680000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>105</v>
       </c>
@@ -10726,7 +7245,7 @@
         <v>2.3400000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>106</v>
       </c>
@@ -10786,7 +7305,7 @@
         <v>2.5270000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>107</v>
       </c>
@@ -10846,7 +7365,7 @@
         <v>2.4709999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>108</v>
       </c>
@@ -10906,7 +7425,7 @@
         <v>2.5010000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>109</v>
       </c>
@@ -10966,7 +7485,7 @@
         <v>2.5270000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>110</v>
       </c>
@@ -11026,7 +7545,7 @@
         <v>2.426E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>111</v>
       </c>
@@ -11086,7 +7605,7 @@
         <v>2.3480000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
@@ -11146,7 +7665,7 @@
         <v>2.512E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>67</v>
       </c>
@@ -11206,7 +7725,7 @@
         <v>2.4680000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L54">
         <f>MIN(L2:L51)</f>
         <v>1.3500000000000001E-3</v>
@@ -11240,7 +7759,7 @@
         <v>1.9990000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L55">
         <f>MAX(L2:L51)</f>
         <v>1.7700000000000001E-3</v>
@@ -11274,7 +7793,7 @@
         <v>2.547E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L56">
         <f>AVERAGE(L2:L51)</f>
         <v>1.5005999999999999E-3</v>
@@ -11314,1399 +7833,20 @@
       <sortCondition ref="J1:J52"/>
     </sortState>
   </autoFilter>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>10</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>0.9</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>30</v>
-      </c>
-      <c r="B3">
-        <v>1.3</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>1.5</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>1.7</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>1.2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>70</v>
-      </c>
-      <c r="B7">
-        <v>1.3</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>80</v>
-      </c>
-      <c r="B8">
-        <v>1.3</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>90</v>
-      </c>
-      <c r="B9">
-        <v>1.4</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10">
-        <v>1.3</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>110</v>
-      </c>
-      <c r="B11">
-        <v>1.4</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>120</v>
-      </c>
-      <c r="B12">
-        <v>1.6</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>130</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>140</v>
-      </c>
-      <c r="B14">
-        <v>1.8</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>150</v>
-      </c>
-      <c r="B15">
-        <v>1.9</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>160</v>
-      </c>
-      <c r="B16">
-        <v>1.7</v>
-      </c>
-      <c r="C16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>170</v>
-      </c>
-      <c r="B17">
-        <v>1.8</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>180</v>
-      </c>
-      <c r="B18">
-        <v>1.7</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>190</v>
-      </c>
-      <c r="B19">
-        <v>1.7</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>200</v>
-      </c>
-      <c r="B20">
-        <v>2.1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>210</v>
-      </c>
-      <c r="B21">
-        <v>2.5</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>220</v>
-      </c>
-      <c r="B22">
-        <v>2.5</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>230</v>
-      </c>
-      <c r="B23">
-        <v>2.5</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>240</v>
-      </c>
-      <c r="B24">
-        <v>2.4</v>
-      </c>
-      <c r="C24">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>250</v>
-      </c>
-      <c r="B25">
-        <v>2.1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>260</v>
-      </c>
-      <c r="B26">
-        <v>1.6</v>
-      </c>
-      <c r="C26">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>270</v>
-      </c>
-      <c r="B27">
-        <v>2.5</v>
-      </c>
-      <c r="C27">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>280</v>
-      </c>
-      <c r="B28">
-        <v>2.5</v>
-      </c>
-      <c r="C28">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>290</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>300</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>310</v>
-      </c>
-      <c r="B31">
-        <v>2.9</v>
-      </c>
-      <c r="C31">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>320</v>
-      </c>
-      <c r="B32">
-        <v>3.1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>330</v>
-      </c>
-      <c r="B33">
-        <v>2.6</v>
-      </c>
-      <c r="C33">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>340</v>
-      </c>
-      <c r="B34">
-        <v>3.1</v>
-      </c>
-      <c r="C34">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>350</v>
-      </c>
-      <c r="B35">
-        <v>2.9</v>
-      </c>
-      <c r="C35">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>360</v>
-      </c>
-      <c r="B36">
-        <v>3.3</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>370</v>
-      </c>
-      <c r="B37">
-        <v>3.7</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>380</v>
-      </c>
-      <c r="B38">
-        <v>3.5</v>
-      </c>
-      <c r="C38">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>390</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>400</v>
-      </c>
-      <c r="B40">
-        <v>3.9</v>
-      </c>
-      <c r="C40">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>410</v>
-      </c>
-      <c r="B41">
-        <v>3.1</v>
-      </c>
-      <c r="C41">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>420</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>430</v>
-      </c>
-      <c r="B43">
-        <v>4.2</v>
-      </c>
-      <c r="C43">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>440</v>
-      </c>
-      <c r="B44">
-        <v>3.7</v>
-      </c>
-      <c r="C44">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>450</v>
-      </c>
-      <c r="B45">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C45">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>460</v>
-      </c>
-      <c r="B46">
-        <v>3.4</v>
-      </c>
-      <c r="C46">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>470</v>
-      </c>
-      <c r="B47">
-        <v>3.7</v>
-      </c>
-      <c r="C47">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>480</v>
-      </c>
-      <c r="B48">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C48">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>490</v>
-      </c>
-      <c r="B49">
-        <v>3.1</v>
-      </c>
-      <c r="C49">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>500</v>
-      </c>
-      <c r="B50">
-        <v>4.3</v>
-      </c>
-      <c r="C50">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>510</v>
-      </c>
-      <c r="B51">
-        <v>4.7</v>
-      </c>
-      <c r="C51">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>520</v>
-      </c>
-      <c r="B52">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C52">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>530</v>
-      </c>
-      <c r="B53">
-        <v>3.7</v>
-      </c>
-      <c r="C53">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>540</v>
-      </c>
-      <c r="B54">
-        <v>3.8</v>
-      </c>
-      <c r="C54">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>550</v>
-      </c>
-      <c r="B55">
-        <v>3.9</v>
-      </c>
-      <c r="C55">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>560</v>
-      </c>
-      <c r="B56">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C56">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>570</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="C57">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>580</v>
-      </c>
-      <c r="B58">
-        <v>4.5</v>
-      </c>
-      <c r="C58">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>590</v>
-      </c>
-      <c r="B59">
-        <v>4.5</v>
-      </c>
-      <c r="C59">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>600</v>
-      </c>
-      <c r="B60">
-        <v>4.5</v>
-      </c>
-      <c r="C60">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>610</v>
-      </c>
-      <c r="B61">
-        <v>4.5</v>
-      </c>
-      <c r="C61">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>620</v>
-      </c>
-      <c r="B62">
-        <v>5.5</v>
-      </c>
-      <c r="C62">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>630</v>
-      </c>
-      <c r="B63">
-        <v>5.5</v>
-      </c>
-      <c r="C63">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>640</v>
-      </c>
-      <c r="B64">
-        <v>5.5</v>
-      </c>
-      <c r="C64">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <v>650</v>
-      </c>
-      <c r="B65">
-        <v>5.5</v>
-      </c>
-      <c r="C65">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>660</v>
-      </c>
-      <c r="B66">
-        <v>5.5</v>
-      </c>
-      <c r="C66">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>670</v>
-      </c>
-      <c r="B67">
-        <v>6.1</v>
-      </c>
-      <c r="C67">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>680</v>
-      </c>
-      <c r="B68">
-        <v>6.2</v>
-      </c>
-      <c r="C68">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>690</v>
-      </c>
-      <c r="B69">
-        <v>5.5</v>
-      </c>
-      <c r="C69">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>700</v>
-      </c>
-      <c r="B70">
-        <v>6.1</v>
-      </c>
-      <c r="C70">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <v>710</v>
-      </c>
-      <c r="B71">
-        <v>6.5</v>
-      </c>
-      <c r="C71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72">
-        <v>720</v>
-      </c>
-      <c r="B72">
-        <v>5.5</v>
-      </c>
-      <c r="C72">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73">
-        <v>730</v>
-      </c>
-      <c r="B73">
-        <v>5.9</v>
-      </c>
-      <c r="C73">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74">
-        <v>740</v>
-      </c>
-      <c r="B74">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C74">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <v>750</v>
-      </c>
-      <c r="B75">
-        <v>6.7</v>
-      </c>
-      <c r="C75">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76">
-        <v>760</v>
-      </c>
-      <c r="B76">
-        <v>7.1</v>
-      </c>
-      <c r="C76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77">
-        <v>770</v>
-      </c>
-      <c r="B77">
-        <v>7.5</v>
-      </c>
-      <c r="C77">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <v>780</v>
-      </c>
-      <c r="B78">
-        <v>5.5</v>
-      </c>
-      <c r="C78">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79">
-        <v>790</v>
-      </c>
-      <c r="B79">
-        <v>5.9</v>
-      </c>
-      <c r="C79">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80">
-        <v>800</v>
-      </c>
-      <c r="B80">
-        <v>7</v>
-      </c>
-      <c r="C80">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81">
-        <v>810</v>
-      </c>
-      <c r="B81">
-        <v>7.9</v>
-      </c>
-      <c r="C81">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82">
-        <v>820</v>
-      </c>
-      <c r="B82">
-        <v>7.5</v>
-      </c>
-      <c r="C82">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83">
-        <v>830</v>
-      </c>
-      <c r="B83">
-        <v>5.8</v>
-      </c>
-      <c r="C83">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84">
-        <v>840</v>
-      </c>
-      <c r="B84">
-        <v>6.7</v>
-      </c>
-      <c r="C84">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85">
-        <v>850</v>
-      </c>
-      <c r="B85">
-        <v>7.6</v>
-      </c>
-      <c r="C85">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86">
-        <v>860</v>
-      </c>
-      <c r="B86">
-        <v>8.5</v>
-      </c>
-      <c r="C86">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87">
-        <v>870</v>
-      </c>
-      <c r="B87">
-        <v>4.5</v>
-      </c>
-      <c r="C87">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88">
-        <v>880</v>
-      </c>
-      <c r="B88">
-        <v>7.5</v>
-      </c>
-      <c r="C88">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89">
-        <v>890</v>
-      </c>
-      <c r="B89">
-        <v>9.1</v>
-      </c>
-      <c r="C89">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90">
-        <v>900</v>
-      </c>
-      <c r="B90">
-        <v>6.5</v>
-      </c>
-      <c r="C90">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91">
-        <v>910</v>
-      </c>
-      <c r="B91">
-        <v>6.7</v>
-      </c>
-      <c r="C91">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92">
-        <v>920</v>
-      </c>
-      <c r="B92">
-        <v>9.5</v>
-      </c>
-      <c r="C92">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93">
-        <v>930</v>
-      </c>
-      <c r="B93">
-        <v>7.5</v>
-      </c>
-      <c r="C93">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94">
-        <v>940</v>
-      </c>
-      <c r="B94">
-        <v>7</v>
-      </c>
-      <c r="C94">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95">
-        <v>950</v>
-      </c>
-      <c r="B95">
-        <v>9.5</v>
-      </c>
-      <c r="C95">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96">
-        <v>960</v>
-      </c>
-      <c r="B96">
-        <v>7.5</v>
-      </c>
-      <c r="C96">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97">
-        <v>970</v>
-      </c>
-      <c r="B97">
-        <v>7</v>
-      </c>
-      <c r="C97">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A98">
-        <v>980</v>
-      </c>
-      <c r="B98">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C98">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99">
-        <v>990</v>
-      </c>
-      <c r="B99">
-        <v>6.5</v>
-      </c>
-      <c r="C99">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A100">
-        <v>1000</v>
-      </c>
-      <c r="B100">
-        <v>8.5</v>
-      </c>
-      <c r="C100">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A101">
-        <v>1010</v>
-      </c>
-      <c r="B101">
-        <v>10.5</v>
-      </c>
-      <c r="C101">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102">
-        <v>1020</v>
-      </c>
-      <c r="B102">
-        <v>6.1</v>
-      </c>
-      <c r="C102">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103">
-        <v>1030</v>
-      </c>
-      <c r="B103">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C103">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104">
-        <v>1040</v>
-      </c>
-      <c r="B104">
-        <v>8.5</v>
-      </c>
-      <c r="C104">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105">
-        <v>1050</v>
-      </c>
-      <c r="B105">
-        <v>7.3</v>
-      </c>
-      <c r="C105">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106">
-        <v>1060</v>
-      </c>
-      <c r="B106">
-        <v>10.9</v>
-      </c>
-      <c r="C106">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107">
-        <v>1070</v>
-      </c>
-      <c r="B107">
-        <v>6.5</v>
-      </c>
-      <c r="C107">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108">
-        <v>1080</v>
-      </c>
-      <c r="B108">
-        <v>8.5</v>
-      </c>
-      <c r="C108">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A109">
-        <v>1090</v>
-      </c>
-      <c r="B109">
-        <v>10.5</v>
-      </c>
-      <c r="C109">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A110">
-        <v>1100</v>
-      </c>
-      <c r="B110">
-        <v>6.1</v>
-      </c>
-      <c r="C110">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A111">
-        <v>1110</v>
-      </c>
-      <c r="B111">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C111">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A112">
-        <v>1120</v>
-      </c>
-      <c r="B112">
-        <v>8.5</v>
-      </c>
-      <c r="C112">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A113">
-        <v>1130</v>
-      </c>
-      <c r="B113">
-        <v>7.3</v>
-      </c>
-      <c r="C113">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A114">
-        <v>1140</v>
-      </c>
-      <c r="B114">
-        <v>10.9</v>
-      </c>
-      <c r="C114">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A115">
-        <v>1150</v>
-      </c>
-      <c r="B115">
-        <v>6.5</v>
-      </c>
-      <c r="C115">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A116">
-        <v>1160</v>
-      </c>
-      <c r="B116">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C116">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A117">
-        <v>1170</v>
-      </c>
-      <c r="B117">
-        <v>9.5</v>
-      </c>
-      <c r="C117">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A118">
-        <v>1180</v>
-      </c>
-      <c r="B118">
-        <v>6.7</v>
-      </c>
-      <c r="C118">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A119">
-        <v>1190</v>
-      </c>
-      <c r="B119">
-        <v>11.8</v>
-      </c>
-      <c r="C119">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A120">
-        <v>1200</v>
-      </c>
-      <c r="B120">
-        <v>6.5</v>
-      </c>
-      <c r="C120">
-        <v>9.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>1.95</v>
-      </c>
-      <c r="B1">
-        <v>98.2</v>
-      </c>
-      <c r="C1">
-        <f>B1+A1</f>
-        <v>100.15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>0.65</v>
-      </c>
-      <c r="B2">
-        <v>99.45</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C3" si="0">B2+A2</f>
-        <v>100.10000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B3" s="4">
-        <v>99</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>100.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>